--- a/WarehouseFacility/Reports/Parsed Reports.xlsx
+++ b/WarehouseFacility/Reports/Parsed Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\GitHub\Bachelor Warehouse\WarehouseFacility\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D744030B-9CF5-48AE-B088-F78053786435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35A1A79-47AC-4A6F-BEB1-417A82E6DEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12555" yWindow="1035" windowWidth="15315" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +446,9 @@
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
